--- a/ds_algo109/target/classes/data_dsalgo.xlsx
+++ b/ds_algo109/target/classes/data_dsalgo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5192A89A-211A-46B7-A70A-FE37521FDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{890B2F0A-0590-4C67-8004-CE79D14D9F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
     <t>Bethi14109</t>
   </si>
   <si>
-    <t>spring2023</t>
+    <t>spring202314</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   </sheetPr>
   <dimension ref="A1:E1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
